--- a/xlsx_files/Race15.xlsx
+++ b/xlsx_files/Race15.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADBE587F-F753-4AA1-B491-EC47F82B7CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D0F339-C150-434E-B172-993DEF426753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Track Name</t>
   </si>
@@ -229,6 +229,12 @@
   </si>
   <si>
     <t>Nürburgring</t>
+  </si>
+  <si>
+    <t>01:54.6720</t>
+  </si>
+  <si>
+    <t>Kostiantyn Romanenko</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -297,6 +303,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -581,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -597,7 +606,7 @@
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -649,7 +658,7 @@
         <v>32</v>
       </c>
       <c r="E2" s="1">
-        <v>44559</v>
+        <v>44545</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
@@ -657,11 +666,17 @@
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>23</v>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
